--- a/example/Requirements.xlsx
+++ b/example/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nate_mollica/Documents/1. University/1. National University/ITM440_DatabaseConcepts_DataModel/Project/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natemollica/database-design/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C8FF4-57BB-474B-89DE-D1C82334AD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBBD8F4-E011-E547-87F9-2445D2D97D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-72800" yWindow="2140" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" ITM440 Project Scoring" sheetId="1" r:id="rId1"/>
@@ -1156,36 +1156,18 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Selected scenario:  </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">Indicate choice of modeling tool </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1. ABC; 2. Geeks, 3. Eclectics; 4. FACT: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ITM440_eLearning </t>
+      <t>researched</t>
     </r>
     <r>
       <rPr>
@@ -1195,12 +1177,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of solution prototype was designed.  The Framework is to be adapted to become a Database Design (DDR) specification.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Indicate choice of modeling tool </t>
+      <t xml:space="preserve"> &amp; learned:  [] Visio,  [X] Lucid Chart, [ ] MS Access, or [</t>
     </r>
     <r>
       <rPr>
@@ -1211,7 +1188,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>researched</t>
+      <t>X</t>
     </r>
     <r>
       <rPr>
@@ -1221,7 +1198,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> &amp; learned:  [] Visio,  [X] Lucid Chart, [ ] MS Access, or [</t>
+      <t xml:space="preserve">] </t>
     </r>
     <r>
       <rPr>
@@ -1232,7 +1209,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>X</t>
+      <t>MySQLWorkBench</t>
     </r>
     <r>
       <rPr>
@@ -1242,29 +1219,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MySQLWorkBench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>, plus  an summary of learning experience</t>
     </r>
+  </si>
+  <si>
+    <t>Selected scenario:  1. ABC; 2. Geeks, 3. Eclectics; 4. FACT:  eLearning  of solution prototype was designed.  The Framework is to be adapted to become a Database Design (DDR) specification.</t>
   </si>
 </sst>
 </file>
@@ -1807,15 +1766,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,13 +1787,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1869,7 +1825,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1901,43 +1857,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1952,16 +1899,12 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1972,8 +1915,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1983,36 +1924,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2383,86 +2321,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J27"/>
+  <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="151" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="151" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71" style="11" customWidth="1"/>
-    <col min="4" max="4" width="28" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="37"/>
-    <col min="6" max="6" width="9.1640625" style="38"/>
+    <col min="3" max="3" width="71" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="36"/>
+    <col min="6" max="6" width="9.1640625" style="5"/>
     <col min="7" max="7" width="30.5" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
     </row>
-    <row r="2" spans="2:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
     </row>
-    <row r="3" spans="2:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="72"/>
-      <c r="C3" s="55" t="s">
+    <row r="3" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="64"/>
+      <c r="C3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="73"/>
-      <c r="C4" s="79" t="s">
+    <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="65"/>
+      <c r="C4" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="52"/>
+      <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="73"/>
-      <c r="C5" s="81" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="65"/>
+      <c r="C5" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="56"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="73"/>
+    <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="65"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="57"/>
+      <c r="G6" s="51"/>
     </row>
-    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="73"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="59" t="s">
+    <row r="7" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="65"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="53" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2475,345 +2411,342 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="73"/>
-      <c r="C8" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="39" t="s">
+    <row r="8" spans="2:7" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="65"/>
+      <c r="C8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="54">
         <f>E26</f>
         <v>300</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="55">
         <f>F26</f>
         <v>300</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="J8" s="63"/>
+      <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="74"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="14">
+    <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="66"/>
+      <c r="E9" s="13">
         <f>F8/E8</f>
         <v>1</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="51" t="s">
+    <row r="10" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="52" t="s">
+    <row r="11" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>0</v>
       </c>
       <c r="F11" s="5">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52" t="s">
+    <row r="12" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>10</v>
       </c>
       <c r="F12" s="5">
         <f>E12</f>
         <v>10</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="52" t="s">
+    <row r="13" spans="2:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>20</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ref="F13:F18" si="0">E13</f>
         <v>20</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53" t="s">
+    <row r="14" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>50</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="2:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="s">
+    <row r="15" spans="2:7" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>50</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="53" t="s">
+    <row r="16" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>25</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>20</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>20</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="53"/>
-      <c r="C19" s="46" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="18"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="12"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>20</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ref="F21:F25" si="1">E21</f>
         <v>20</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>30</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>20</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>30</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>5</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="28" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <f>SUM(E11:E25)</f>
         <v>300</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="29">
         <f>SUM(F11:F25)</f>
         <v>300</v>
       </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
